--- a/app/Data/Breads & Cakes.xlsx
+++ b/app/Data/Breads & Cakes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Lino\Platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Lino\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6925E390-1F17-4842-A355-18907B632568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128E3781-488E-470B-A4F2-6F4006F0DE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9890A5B0-93A2-4AB5-B86A-F0CB24813ABC}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{9890A5B0-93A2-4AB5-B86A-F0CB24813ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
   <si>
     <t xml:space="preserve">SKU NUMBER </t>
   </si>
@@ -111,6 +111,90 @@
   </si>
   <si>
     <t>90g</t>
+  </si>
+  <si>
+    <t>10x800g</t>
+  </si>
+  <si>
+    <t>800g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BREAD KINGSMILL WHITE MEDIUM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BREAD KINGSMILL WHITE THICK </t>
+  </si>
+  <si>
+    <t>BREAD KINGSMILL WHOLEMEAL MEDIUM</t>
+  </si>
+  <si>
+    <t>BREAD KINGSMILL WHOLEMEAL THICK</t>
+  </si>
+  <si>
+    <t>DAKTILLA GREEK BREAD WHITE FINGERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1x one </t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>WRAPS 50/50 KINGSMILL</t>
+  </si>
+  <si>
+    <t>1x6</t>
+  </si>
+  <si>
+    <t>6 wraps</t>
+  </si>
+  <si>
+    <t>CRUMPETS KINGSMILL LOVE TO TOAST</t>
+  </si>
+  <si>
+    <t>6 crumpets</t>
+  </si>
+  <si>
+    <t>KINGSMILL WHITE HOT CROSS BUNS</t>
+  </si>
+  <si>
+    <t>1x4</t>
+  </si>
+  <si>
+    <t>4 buns</t>
+  </si>
+  <si>
+    <t>MUFFINS KINGSMILL LOVE TO TOAST</t>
+  </si>
+  <si>
+    <t>10x4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 muffins </t>
+  </si>
+  <si>
+    <t>PANCAKES KINGSMILL LOVE TO TOAST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 pancakes </t>
+  </si>
+  <si>
+    <t>TEACAKE FRUITED SUNBLEST FRESH</t>
+  </si>
+  <si>
+    <t>4 teacakes</t>
+  </si>
+  <si>
+    <t>SUNBLEST</t>
+  </si>
+  <si>
+    <t>CURRANT BUNS SUNBLEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUNBLEST </t>
+  </si>
+  <si>
+    <t>24x4</t>
   </si>
 </sst>
 </file>
@@ -144,15 +228,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -160,18 +250,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,20 +594,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45612C4A-5228-4441-AEC0-8EF974E9A235}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A15" sqref="A15:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="5" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="5" customWidth="1"/>
     <col min="7" max="8" width="18.28515625" customWidth="1"/>
     <col min="9" max="10" width="18.140625" customWidth="1"/>
     <col min="11" max="11" width="27.5703125" customWidth="1"/>
@@ -541,7 +649,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -629,35 +737,380 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="6" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5010003000131</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>17.09</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1.79</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>5010092093144</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>12.69</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1.29</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>5010003000339</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>17.09</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1.79</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>5010092093342</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1.69</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>101615</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1.79</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1.79</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>5010092344246</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1.19</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.19</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>5010092018000</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
+        <v>25.29</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>5060062470826</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
         <v>9.59</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F15" s="5">
         <v>9.59</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H15" t="s">
         <v>23</v>
       </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>5010092152544</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8">
+        <v>12.19</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1.29</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>5010092281749</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1.59</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1.59</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>5010092019007</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
+        <v>10.39</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>5010032153541</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8">
+        <v>10.39</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>5010092018109</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8">
+        <v>12.29</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1.29</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
